--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Clcf1-Crlf1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Clcf1-Crlf1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83683917883596</v>
+        <v>1.994409666666667</v>
       </c>
       <c r="H2">
-        <v>1.83683917883596</v>
+        <v>5.983229</v>
       </c>
       <c r="I2">
-        <v>0.1408253429995646</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="J2">
-        <v>0.1408253429995646</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.33701969566473</v>
+        <v>0.5315786666666668</v>
       </c>
       <c r="N2">
-        <v>4.33701969566473</v>
+        <v>1.594736</v>
       </c>
       <c r="O2">
-        <v>0.8641891869018581</v>
+        <v>0.08932739063145036</v>
       </c>
       <c r="P2">
-        <v>0.8641891869018581</v>
+        <v>0.08932739063145036</v>
       </c>
       <c r="Q2">
-        <v>7.966407696380188</v>
+        <v>1.060185631393778</v>
       </c>
       <c r="R2">
-        <v>7.966407696380188</v>
+        <v>9.541670682544</v>
       </c>
       <c r="S2">
-        <v>0.121699738661969</v>
+        <v>0.0120767680436714</v>
       </c>
       <c r="T2">
-        <v>0.121699738661969</v>
+        <v>0.0120767680436714</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.83683917883596</v>
+        <v>1.994409666666667</v>
       </c>
       <c r="H3">
-        <v>1.83683917883596</v>
+        <v>5.983229</v>
       </c>
       <c r="I3">
-        <v>0.1408253429995646</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="J3">
-        <v>0.1408253429995646</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.681580121827855</v>
+        <v>4.372435</v>
       </c>
       <c r="N3">
-        <v>0.681580121827855</v>
+        <v>13.117305</v>
       </c>
       <c r="O3">
-        <v>0.135810813098142</v>
+        <v>0.734751474706081</v>
       </c>
       <c r="P3">
-        <v>0.135810813098142</v>
+        <v>0.7347514747060809</v>
       </c>
       <c r="Q3">
-        <v>1.251953071289191</v>
+        <v>8.720426630871668</v>
       </c>
       <c r="R3">
-        <v>1.251953071289191</v>
+        <v>78.483839677845</v>
       </c>
       <c r="S3">
-        <v>0.01912560433759561</v>
+        <v>0.09933597149816091</v>
       </c>
       <c r="T3">
-        <v>0.01912560433759561</v>
+        <v>0.0993359714981609</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.09935475253223</v>
+        <v>1.994409666666667</v>
       </c>
       <c r="H4">
-        <v>5.09935475253223</v>
+        <v>5.983229</v>
       </c>
       <c r="I4">
-        <v>0.3909533237182455</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="J4">
-        <v>0.3909533237182455</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>4.33701969566473</v>
+        <v>0.06072066666666667</v>
       </c>
       <c r="N4">
-        <v>4.33701969566473</v>
+        <v>0.182162</v>
       </c>
       <c r="O4">
-        <v>0.8641891869018581</v>
+        <v>0.01020360494289102</v>
       </c>
       <c r="P4">
-        <v>0.8641891869018581</v>
+        <v>0.01020360494289102</v>
       </c>
       <c r="Q4">
-        <v>22.11600199691383</v>
+        <v>0.1211018845664444</v>
       </c>
       <c r="R4">
-        <v>22.11600199691383</v>
+        <v>1.089916961098</v>
       </c>
       <c r="S4">
-        <v>0.3378576349406495</v>
+        <v>0.001379493671912636</v>
       </c>
       <c r="T4">
-        <v>0.3378576349406495</v>
+        <v>0.001379493671912636</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.09935475253223</v>
+        <v>1.994409666666667</v>
       </c>
       <c r="H5">
-        <v>5.09935475253223</v>
+        <v>5.983229</v>
       </c>
       <c r="I5">
-        <v>0.3909533237182455</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="J5">
-        <v>0.3909533237182455</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.681580121827855</v>
+        <v>0.1351536666666667</v>
       </c>
       <c r="N5">
-        <v>0.681580121827855</v>
+        <v>0.405461</v>
       </c>
       <c r="O5">
-        <v>0.135810813098142</v>
+        <v>0.02271145389131398</v>
       </c>
       <c r="P5">
-        <v>0.135810813098142</v>
+        <v>0.02271145389131398</v>
       </c>
       <c r="Q5">
-        <v>3.475618833474369</v>
+        <v>0.2695517792854444</v>
       </c>
       <c r="R5">
-        <v>3.475618833474369</v>
+        <v>2.425966013569</v>
       </c>
       <c r="S5">
-        <v>0.05309568877759605</v>
+        <v>0.003070513519325488</v>
       </c>
       <c r="T5">
-        <v>0.05309568877759605</v>
+        <v>0.003070513519325488</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.821322590693367</v>
+        <v>1.994409666666667</v>
       </c>
       <c r="H6">
-        <v>0.821322590693367</v>
+        <v>5.983229</v>
       </c>
       <c r="I6">
-        <v>0.06296851508850236</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="J6">
-        <v>0.06296851508850236</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.33701969566473</v>
+        <v>0.8510153333333333</v>
       </c>
       <c r="N6">
-        <v>4.33701969566473</v>
+        <v>2.553046</v>
       </c>
       <c r="O6">
-        <v>0.8641891869018581</v>
+        <v>0.1430060758282636</v>
       </c>
       <c r="P6">
-        <v>0.8641891869018581</v>
+        <v>0.1430060758282636</v>
       </c>
       <c r="Q6">
-        <v>3.562092252331514</v>
+        <v>1.697273207281556</v>
       </c>
       <c r="R6">
-        <v>3.562092252331514</v>
+        <v>15.275458865534</v>
       </c>
       <c r="S6">
-        <v>0.05441670985475024</v>
+        <v>0.01933394890867398</v>
       </c>
       <c r="T6">
-        <v>0.05441670985475024</v>
+        <v>0.01933394890867398</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.821322590693367</v>
+        <v>5.140775333333333</v>
       </c>
       <c r="H7">
-        <v>0.821322590693367</v>
+        <v>15.422326</v>
       </c>
       <c r="I7">
-        <v>0.06296851508850236</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="J7">
-        <v>0.06296851508850236</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.681580121827855</v>
+        <v>0.5315786666666668</v>
       </c>
       <c r="N7">
-        <v>0.681580121827855</v>
+        <v>1.594736</v>
       </c>
       <c r="O7">
-        <v>0.135810813098142</v>
+        <v>0.08932739063145036</v>
       </c>
       <c r="P7">
-        <v>0.135810813098142</v>
+        <v>0.08932739063145036</v>
       </c>
       <c r="Q7">
-        <v>0.5597971514247545</v>
+        <v>2.732726497326222</v>
       </c>
       <c r="R7">
-        <v>0.5597971514247545</v>
+        <v>24.594538475936</v>
       </c>
       <c r="S7">
-        <v>0.008551805233752128</v>
+        <v>0.03112898633762516</v>
       </c>
       <c r="T7">
-        <v>0.008551805233752128</v>
+        <v>0.03112898633762516</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.939712386429746</v>
+        <v>5.140775333333333</v>
       </c>
       <c r="H8">
-        <v>0.939712386429746</v>
+        <v>15.422326</v>
       </c>
       <c r="I8">
-        <v>0.07204513093180635</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="J8">
-        <v>0.07204513093180635</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.33701969566473</v>
+        <v>4.372435</v>
       </c>
       <c r="N8">
-        <v>4.33701969566473</v>
+        <v>13.117305</v>
       </c>
       <c r="O8">
-        <v>0.8641891869018581</v>
+        <v>0.734751474706081</v>
       </c>
       <c r="P8">
-        <v>0.8641891869018581</v>
+        <v>0.7347514747060809</v>
       </c>
       <c r="Q8">
-        <v>4.075551128205914</v>
+        <v>22.47770599460333</v>
       </c>
       <c r="R8">
-        <v>4.075551128205914</v>
+        <v>202.29935395143</v>
       </c>
       <c r="S8">
-        <v>0.06226062312019564</v>
+        <v>0.2560476518567726</v>
       </c>
       <c r="T8">
-        <v>0.06226062312019564</v>
+        <v>0.2560476518567726</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.939712386429746</v>
+        <v>5.140775333333333</v>
       </c>
       <c r="H9">
-        <v>0.939712386429746</v>
+        <v>15.422326</v>
       </c>
       <c r="I9">
-        <v>0.07204513093180635</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="J9">
-        <v>0.07204513093180635</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.681580121827855</v>
+        <v>0.06072066666666667</v>
       </c>
       <c r="N9">
-        <v>0.681580121827855</v>
+        <v>0.182162</v>
       </c>
       <c r="O9">
-        <v>0.135810813098142</v>
+        <v>0.01020360494289102</v>
       </c>
       <c r="P9">
-        <v>0.135810813098142</v>
+        <v>0.01020360494289102</v>
       </c>
       <c r="Q9">
-        <v>0.6404892828259307</v>
+        <v>0.3121513054235555</v>
       </c>
       <c r="R9">
-        <v>0.6404892828259307</v>
+        <v>2.809361748812</v>
       </c>
       <c r="S9">
-        <v>0.009784507811610721</v>
+        <v>0.003555772497287622</v>
       </c>
       <c r="T9">
-        <v>0.009784507811610721</v>
+        <v>0.003555772497287622</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.34615617910361</v>
+        <v>5.140775333333333</v>
       </c>
       <c r="H10">
-        <v>4.34615617910361</v>
+        <v>15.422326</v>
       </c>
       <c r="I10">
-        <v>0.3332076872618811</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="J10">
-        <v>0.3332076872618811</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>4.33701969566473</v>
+        <v>0.1351536666666667</v>
       </c>
       <c r="N10">
-        <v>4.33701969566473</v>
+        <v>0.405461</v>
       </c>
       <c r="O10">
-        <v>0.8641891869018581</v>
+        <v>0.02271145389131398</v>
       </c>
       <c r="P10">
-        <v>0.8641891869018581</v>
+        <v>0.02271145389131398</v>
       </c>
       <c r="Q10">
-        <v>18.84936494920732</v>
+        <v>0.6947946358095556</v>
       </c>
       <c r="R10">
-        <v>18.84936494920732</v>
+        <v>6.253151722286</v>
       </c>
       <c r="S10">
-        <v>0.2879544803242937</v>
+        <v>0.007914532517883734</v>
       </c>
       <c r="T10">
-        <v>0.2879544803242937</v>
+        <v>0.007914532517883733</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,52 +1092,982 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.34615617910361</v>
+        <v>5.140775333333333</v>
       </c>
       <c r="H11">
-        <v>4.34615617910361</v>
+        <v>15.422326</v>
       </c>
       <c r="I11">
-        <v>0.3332076872618811</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="J11">
-        <v>0.3332076872618811</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.681580121827855</v>
+        <v>0.8510153333333333</v>
       </c>
       <c r="N11">
-        <v>0.681580121827855</v>
+        <v>2.553046</v>
       </c>
       <c r="O11">
-        <v>0.135810813098142</v>
+        <v>0.1430060758282636</v>
       </c>
       <c r="P11">
-        <v>0.135810813098142</v>
+        <v>0.1430060758282636</v>
       </c>
       <c r="Q11">
-        <v>2.962253658036323</v>
+        <v>4.374878633888445</v>
       </c>
       <c r="R11">
-        <v>2.962253658036323</v>
+        <v>39.373907704996</v>
       </c>
       <c r="S11">
-        <v>0.04525320693758748</v>
+        <v>0.04983504106844554</v>
       </c>
       <c r="T11">
-        <v>0.04525320693758748</v>
+        <v>0.04983504106844554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.8411243333333333</v>
+      </c>
+      <c r="H12">
+        <v>2.523373</v>
+      </c>
+      <c r="I12">
+        <v>0.05701799003039922</v>
+      </c>
+      <c r="J12">
+        <v>0.05701799003039922</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.5315786666666668</v>
+      </c>
+      <c r="N12">
+        <v>1.594736</v>
+      </c>
+      <c r="O12">
+        <v>0.08932739063145036</v>
+      </c>
+      <c r="P12">
+        <v>0.08932739063145036</v>
+      </c>
+      <c r="Q12">
+        <v>0.4471237516142222</v>
+      </c>
+      <c r="R12">
+        <v>4.024113764528</v>
+      </c>
+      <c r="S12">
+        <v>0.005093268268465613</v>
+      </c>
+      <c r="T12">
+        <v>0.005093268268465613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.8411243333333333</v>
+      </c>
+      <c r="H13">
+        <v>2.523373</v>
+      </c>
+      <c r="I13">
+        <v>0.05701799003039922</v>
+      </c>
+      <c r="J13">
+        <v>0.05701799003039922</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.372435</v>
+      </c>
+      <c r="N13">
+        <v>13.117305</v>
+      </c>
+      <c r="O13">
+        <v>0.734751474706081</v>
+      </c>
+      <c r="P13">
+        <v>0.7347514747060809</v>
+      </c>
+      <c r="Q13">
+        <v>3.677761474418333</v>
+      </c>
+      <c r="R13">
+        <v>33.099853269765</v>
+      </c>
+      <c r="S13">
+        <v>0.04189405225961246</v>
+      </c>
+      <c r="T13">
+        <v>0.04189405225961245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8411243333333333</v>
+      </c>
+      <c r="H14">
+        <v>2.523373</v>
+      </c>
+      <c r="I14">
+        <v>0.05701799003039922</v>
+      </c>
+      <c r="J14">
+        <v>0.05701799003039922</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.06072066666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.182162</v>
+      </c>
+      <c r="O14">
+        <v>0.01020360494289102</v>
+      </c>
+      <c r="P14">
+        <v>0.01020360494289102</v>
+      </c>
+      <c r="Q14">
+        <v>0.05107363026955555</v>
+      </c>
+      <c r="R14">
+        <v>0.459662672426</v>
+      </c>
+      <c r="S14">
+        <v>0.0005817890449078925</v>
+      </c>
+      <c r="T14">
+        <v>0.0005817890449078925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.8411243333333333</v>
+      </c>
+      <c r="H15">
+        <v>2.523373</v>
+      </c>
+      <c r="I15">
+        <v>0.05701799003039922</v>
+      </c>
+      <c r="J15">
+        <v>0.05701799003039922</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1351536666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.405461</v>
+      </c>
+      <c r="O15">
+        <v>0.02271145389131398</v>
+      </c>
+      <c r="P15">
+        <v>0.02271145389131398</v>
+      </c>
+      <c r="Q15">
+        <v>0.1136810377725555</v>
+      </c>
+      <c r="R15">
+        <v>1.023129339953</v>
+      </c>
+      <c r="S15">
+        <v>0.001294961451550812</v>
+      </c>
+      <c r="T15">
+        <v>0.001294961451550812</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8411243333333333</v>
+      </c>
+      <c r="H16">
+        <v>2.523373</v>
+      </c>
+      <c r="I16">
+        <v>0.05701799003039922</v>
+      </c>
+      <c r="J16">
+        <v>0.05701799003039922</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.8510153333333333</v>
+      </c>
+      <c r="N16">
+        <v>2.553046</v>
+      </c>
+      <c r="O16">
+        <v>0.1430060758282636</v>
+      </c>
+      <c r="P16">
+        <v>0.1430060758282636</v>
+      </c>
+      <c r="Q16">
+        <v>0.7158097049064444</v>
+      </c>
+      <c r="R16">
+        <v>6.442287344158</v>
+      </c>
+      <c r="S16">
+        <v>0.00815391900586245</v>
+      </c>
+      <c r="T16">
+        <v>0.00815391900586245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.745373333333333</v>
+      </c>
+      <c r="H17">
+        <v>5.23612</v>
+      </c>
+      <c r="I17">
+        <v>0.1183150639869627</v>
+      </c>
+      <c r="J17">
+        <v>0.1183150639869627</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.5315786666666668</v>
+      </c>
+      <c r="N17">
+        <v>1.594736</v>
+      </c>
+      <c r="O17">
+        <v>0.08932739063145036</v>
+      </c>
+      <c r="P17">
+        <v>0.08932739063145036</v>
+      </c>
+      <c r="Q17">
+        <v>0.927803229368889</v>
+      </c>
+      <c r="R17">
+        <v>8.350229064320001</v>
+      </c>
+      <c r="S17">
+        <v>0.01056877593834846</v>
+      </c>
+      <c r="T17">
+        <v>0.01056877593834846</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.745373333333333</v>
+      </c>
+      <c r="H18">
+        <v>5.23612</v>
+      </c>
+      <c r="I18">
+        <v>0.1183150639869627</v>
+      </c>
+      <c r="J18">
+        <v>0.1183150639869627</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.372435</v>
+      </c>
+      <c r="N18">
+        <v>13.117305</v>
+      </c>
+      <c r="O18">
+        <v>0.734751474706081</v>
+      </c>
+      <c r="P18">
+        <v>0.7347514747060809</v>
+      </c>
+      <c r="Q18">
+        <v>7.631531450733333</v>
+      </c>
+      <c r="R18">
+        <v>68.68378305659999</v>
+      </c>
+      <c r="S18">
+        <v>0.08693216774436517</v>
+      </c>
+      <c r="T18">
+        <v>0.08693216774436516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.745373333333333</v>
+      </c>
+      <c r="H19">
+        <v>5.23612</v>
+      </c>
+      <c r="I19">
+        <v>0.1183150639869627</v>
+      </c>
+      <c r="J19">
+        <v>0.1183150639869627</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.06072066666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.182162</v>
+      </c>
+      <c r="O19">
+        <v>0.01020360494289102</v>
+      </c>
+      <c r="P19">
+        <v>0.01020360494289102</v>
+      </c>
+      <c r="Q19">
+        <v>0.1059802323822222</v>
+      </c>
+      <c r="R19">
+        <v>0.9538220914399999</v>
+      </c>
+      <c r="S19">
+        <v>0.00120724017171584</v>
+      </c>
+      <c r="T19">
+        <v>0.00120724017171584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.745373333333333</v>
+      </c>
+      <c r="H20">
+        <v>5.23612</v>
+      </c>
+      <c r="I20">
+        <v>0.1183150639869627</v>
+      </c>
+      <c r="J20">
+        <v>0.1183150639869627</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.1351536666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.405461</v>
+      </c>
+      <c r="O20">
+        <v>0.02271145389131398</v>
+      </c>
+      <c r="P20">
+        <v>0.02271145389131398</v>
+      </c>
+      <c r="Q20">
+        <v>0.2358936057022222</v>
+      </c>
+      <c r="R20">
+        <v>2.12304245132</v>
+      </c>
+      <c r="S20">
+        <v>0.002687107120387766</v>
+      </c>
+      <c r="T20">
+        <v>0.002687107120387766</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.745373333333333</v>
+      </c>
+      <c r="H21">
+        <v>5.23612</v>
+      </c>
+      <c r="I21">
+        <v>0.1183150639869627</v>
+      </c>
+      <c r="J21">
+        <v>0.1183150639869627</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.8510153333333333</v>
+      </c>
+      <c r="N21">
+        <v>2.553046</v>
+      </c>
+      <c r="O21">
+        <v>0.1430060758282636</v>
+      </c>
+      <c r="P21">
+        <v>0.1430060758282636</v>
+      </c>
+      <c r="Q21">
+        <v>1.485339469057778</v>
+      </c>
+      <c r="R21">
+        <v>13.36805522152</v>
+      </c>
+      <c r="S21">
+        <v>0.01691977301214545</v>
+      </c>
+      <c r="T21">
+        <v>0.01691977301214545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.030228666666667</v>
+      </c>
+      <c r="H22">
+        <v>15.090686</v>
+      </c>
+      <c r="I22">
+        <v>0.340988266062879</v>
+      </c>
+      <c r="J22">
+        <v>0.340988266062879</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.5315786666666668</v>
+      </c>
+      <c r="N22">
+        <v>1.594736</v>
+      </c>
+      <c r="O22">
+        <v>0.08932739063145036</v>
+      </c>
+      <c r="P22">
+        <v>0.08932739063145036</v>
+      </c>
+      <c r="Q22">
+        <v>2.673962247655111</v>
+      </c>
+      <c r="R22">
+        <v>24.065660228896</v>
+      </c>
+      <c r="S22">
+        <v>0.03045959204333972</v>
+      </c>
+      <c r="T22">
+        <v>0.03045959204333972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.030228666666667</v>
+      </c>
+      <c r="H23">
+        <v>15.090686</v>
+      </c>
+      <c r="I23">
+        <v>0.340988266062879</v>
+      </c>
+      <c r="J23">
+        <v>0.340988266062879</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.372435</v>
+      </c>
+      <c r="N23">
+        <v>13.117305</v>
+      </c>
+      <c r="O23">
+        <v>0.734751474706081</v>
+      </c>
+      <c r="P23">
+        <v>0.7347514747060809</v>
+      </c>
+      <c r="Q23">
+        <v>21.99434788013667</v>
+      </c>
+      <c r="R23">
+        <v>197.94913092123</v>
+      </c>
+      <c r="S23">
+        <v>0.2505416313471699</v>
+      </c>
+      <c r="T23">
+        <v>0.2505416313471698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.030228666666667</v>
+      </c>
+      <c r="H24">
+        <v>15.090686</v>
+      </c>
+      <c r="I24">
+        <v>0.340988266062879</v>
+      </c>
+      <c r="J24">
+        <v>0.340988266062879</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.06072066666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.182162</v>
+      </c>
+      <c r="O24">
+        <v>0.01020360494289102</v>
+      </c>
+      <c r="P24">
+        <v>0.01020360494289102</v>
+      </c>
+      <c r="Q24">
+        <v>0.3054388381257778</v>
+      </c>
+      <c r="R24">
+        <v>2.748949543132</v>
+      </c>
+      <c r="S24">
+        <v>0.003479309557067031</v>
+      </c>
+      <c r="T24">
+        <v>0.003479309557067031</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.030228666666667</v>
+      </c>
+      <c r="H25">
+        <v>15.090686</v>
+      </c>
+      <c r="I25">
+        <v>0.340988266062879</v>
+      </c>
+      <c r="J25">
+        <v>0.340988266062879</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.1351536666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.405461</v>
+      </c>
+      <c r="O25">
+        <v>0.02271145389131398</v>
+      </c>
+      <c r="P25">
+        <v>0.02271145389131398</v>
+      </c>
+      <c r="Q25">
+        <v>0.6798538484717779</v>
+      </c>
+      <c r="R25">
+        <v>6.118684636246</v>
+      </c>
+      <c r="S25">
+        <v>0.00774433928216618</v>
+      </c>
+      <c r="T25">
+        <v>0.00774433928216618</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.030228666666667</v>
+      </c>
+      <c r="H26">
+        <v>15.090686</v>
+      </c>
+      <c r="I26">
+        <v>0.340988266062879</v>
+      </c>
+      <c r="J26">
+        <v>0.340988266062879</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.8510153333333333</v>
+      </c>
+      <c r="N26">
+        <v>2.553046</v>
+      </c>
+      <c r="O26">
+        <v>0.1430060758282636</v>
+      </c>
+      <c r="P26">
+        <v>0.1430060758282636</v>
+      </c>
+      <c r="Q26">
+        <v>4.280801725506223</v>
+      </c>
+      <c r="R26">
+        <v>38.527215529556</v>
+      </c>
+      <c r="S26">
+        <v>0.0487633938331362</v>
+      </c>
+      <c r="T26">
+        <v>0.0487633938331362</v>
       </c>
     </row>
   </sheetData>
